--- a/Farge og sånn.xlsx
+++ b/Farge og sånn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Bærekraft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{AD2C9226-808D-414E-BF94-E19D584D4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAA6FF7-3DA1-48AA-A753-DFAF7B993F29}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{AD2C9226-808D-414E-BF94-E19D584D4534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67833FA-661A-4EA8-8A2E-0E588016AC31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C1447A2-C0E4-47F7-B380-ABFC1D0A5571}"/>
+    <workbookView xWindow="1800" yWindow="1215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{7C1447A2-C0E4-47F7-B380-ABFC1D0A5571}"/>
   </bookViews>
   <sheets>
     <sheet name="mål" sheetId="1" r:id="rId1"/>
@@ -1896,26 +1896,118 @@
     <t>Andel med overvekt og fedme basert på nettskjema til sesjon 1</t>
   </si>
   <si>
-    <t>Klimagassutslipp per innbygger fra veitrafikk</t>
-  </si>
-  <si>
-    <t>Klimagassutslipp per innbygger fra jordbruk</t>
-  </si>
-  <si>
-    <t>Totalt klimagassutslipp per innbygger</t>
-  </si>
-  <si>
-    <t>Klimagassutslipp per innbygger fra industri, olje og gass</t>
-  </si>
-  <si>
     <t>Innarbeide tiltak mot klimaendringer i politikk, strategier og planlegging på nasjonalt nivå</t>
+  </si>
+  <si>
+    <r>
+      <t>Klimagassutslipp per innbygger fra jordbruk, tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ekv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Totalt klimagassutslipp per innbygger, tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ekv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Klimagassutslipp per innbygger fra veitrafikk, tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ekv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Klimagassutslipp per innbygger fra industri, olje og gass, tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ekv</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,6 +2017,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1971,10 +2071,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2182,7 +2278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EC5500-21DA-4E73-AB8A-D4E3CCD46493}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2555,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DFDBED-F197-4BAA-AC56-8FD1D6CFF964}">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
@@ -3948,7 +4044,7 @@
         <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D115" t="s">
         <v>317</v>
@@ -4648,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD225E-F2D8-4D5E-BAF2-F0C162C3F3FC}">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5317,7 +5413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>422</v>
       </c>
@@ -5328,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>422</v>
       </c>
@@ -5339,23 +5435,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B92" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B93" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5847,28 +5943,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6106,10 +6180,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB81CB2-1FDF-489F-9081-301182F79505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CC3325-898A-401C-9A7F-547737FE01AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6127,21 +6235,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CC3325-898A-401C-9A7F-547737FE01AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB81CB2-1FDF-489F-9081-301182F79505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>